--- a/大纲.xlsx
+++ b/大纲.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940" activeTab="2"/>
+    <workbookView windowWidth="19815" windowHeight="7860" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="人物" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>陈浪</t>
   </si>
@@ -130,26 +130,44 @@
     <t>东边小国，大周附属国</t>
   </si>
   <si>
+    <t>徐氏</t>
+  </si>
+  <si>
+    <t>朝廷大臣，有一定的兵权</t>
+  </si>
+  <si>
+    <t xml:space="preserve">前中期朝廷中陷害陈浪，冲在最前面的人
+为构陷陈浪，暗中勾结匪盗抢劫一次生辰纲，嫁祸给陈浪
+给陈浪定下谋反之罪
+</t>
+  </si>
+  <si>
+    <t>张氏</t>
+  </si>
+  <si>
+    <t>宰相</t>
+  </si>
+  <si>
+    <t xml:space="preserve">家中有几个通天寺修行的
+暗中都有家室
+在朝中势力盘根错节，支持太子
+把持朝政，专权，勾结通天寺，对犯上作乱，处在犹犹豫豫间
+但保存家族实力，是绝对不含糊的
+权利熏天，目中无人，甚至皇帝都不放在眼里
+</t>
+  </si>
+  <si>
     <t>郑氏</t>
   </si>
   <si>
     <t>东海霸权</t>
   </si>
   <si>
-    <t>太湖水匪</t>
-  </si>
-  <si>
-    <t>几十万人</t>
-  </si>
-  <si>
-    <t>与太湖水匪有密切联系，前期对陈浪的船科技垂涎三尺</t>
-  </si>
-  <si>
-    <t>以抢劫和收保护费为生，遍布周边水域河道，以太湖为据点
-太湖面积是苏州太湖的4倍，岛屿众多，水网纵横</t>
-  </si>
-  <si>
-    <t>贵族1</t>
+    <t>与太湖水匪有密切联系，前期对陈浪的船科技垂涎三尺
+对海盗势力暗中合作，想要吞并，但没有实力</t>
+  </si>
+  <si>
+    <t>洪全</t>
   </si>
   <si>
     <t>大周国南部</t>
@@ -159,16 +177,14 @@
 觊觎陈浪的地盘</t>
   </si>
   <si>
-    <t>贵族2</t>
-  </si>
-  <si>
-    <t>东海海岛群</t>
-  </si>
-  <si>
-    <t>类似台湾岛</t>
-  </si>
-  <si>
-    <t>有十多个大岛，岛群面积有半个日本大，零星分布的岛屿跨越1000万平方公里的海面</t>
+    <t>童氏</t>
+  </si>
+  <si>
+    <t>离陈浪最近的侯爵，一心想吞并陈浪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">本来是朝廷在南方的重臣，但因为觊觎陈浪的地盘，和起义军勾结，逐渐有了不臣之心
+</t>
   </si>
   <si>
     <t>小王爷</t>
@@ -183,37 +199,33 @@
     <t>太子</t>
   </si>
   <si>
-    <t>东海三岛</t>
-  </si>
-  <si>
-    <t>万里之外的修真岛屿，沧海宗所在地</t>
-  </si>
-  <si>
     <t>皇帝</t>
   </si>
   <si>
     <t>懦弱无能</t>
   </si>
   <si>
-    <t>飞星宗</t>
-  </si>
-  <si>
-    <t>中元大陆内陆的修真宗派</t>
-  </si>
-  <si>
-    <t>位于大周国中部， 大片的森林和高原之上，以高山草甸为主要景观，十分壮美</t>
+    <t>陈浪在南方开辟势力，平定太湖水匪之后，按律法，应该获得爵位
+但被奸臣挑拨抢功，迟迟不肯给陈浪封爵，此时的爵位也确实比较稀少了
+陈浪接受越国封赏之后，大周皇帝派人剿灭陈浪，反而被陈浪打的头破血流
+在国家为难之际，这个皇帝还是想到了陈浪，召陈浪入宫，但陈浪不搭理他
+与小王爷关系却越来越好</t>
+  </si>
+  <si>
+    <t>越王</t>
+  </si>
+  <si>
+    <t>极力拉拢陈浪</t>
+  </si>
+  <si>
+    <t>陈浪自己开辟出势力之后，极力拉拢陈浪，给陈浪子爵的爵位
+宣布其领地的合法性，并给予一定的支持</t>
   </si>
   <si>
     <t>起义军</t>
   </si>
   <si>
     <t>李自成</t>
-  </si>
-  <si>
-    <t>先天人类</t>
-  </si>
-  <si>
-    <t>分布与中元大陆各个地方</t>
   </si>
   <si>
     <t>农民起义的最强大力量团体
@@ -221,9 +233,104 @@
 和贵族1狼狈为奸</t>
   </si>
   <si>
-    <t>人口稀少但非常神秘而强大，很多宗派内也有先天人类
+    <t>太湖水匪</t>
+  </si>
+  <si>
+    <t>几十万人</t>
+  </si>
+  <si>
+    <t>以抢劫和收保护费为生，遍布周边水域河道，以太湖为据点
+太湖面积是苏州太湖的4倍，岛屿众多，水网纵横</t>
+  </si>
+  <si>
+    <t>东海海岛群</t>
+  </si>
+  <si>
+    <t>类似台湾岛</t>
+  </si>
+  <si>
+    <t>有十多个大岛，岛群面积有半个日本大，零星分布的岛屿跨越1000万平方公里的海面</t>
+  </si>
+  <si>
+    <t>沧海宗</t>
+  </si>
+  <si>
+    <t>万里之外的修真岛屿，沧海宗所在地</t>
+  </si>
+  <si>
+    <t xml:space="preserve">掌控东海三岛，非常神秘的修真宗派
+在大海上有非常强大的实力，能够建造巨大的舰船，靠灵力驱动
+但后来陈浪的机械动力舰船已经可以与之媲美
+近年来，逐渐被海中怪物无休止的攻击消耗，和陈浪合作，得到了一定的军力补充
+陈浪与沧海宗合作，发展出了灵能和科技结合的科技，使得舰船和武器有了大幅度提升
+成为抑制海上邪恶势力的重要力量
+</t>
+  </si>
+  <si>
+    <t>魔王的海上力量是另一只不为人知的力量
+陈浪想要夺取的东海破碎群岛，也是魔王觊觎的地方，但没想到被陈浪乱入
+这成为沧海宗与陈浪合作的背后驱动力</t>
+  </si>
+  <si>
+    <t>沧海宗所在海域，有上古人类城市的遗址，非常发达，很多建筑几万年不坏
+由于人魔大战，大致大陆被毁，沉入海底</t>
+  </si>
+  <si>
+    <t>飞星宗</t>
+  </si>
+  <si>
+    <t>中元大陆内陆的修真宗派</t>
+  </si>
+  <si>
+    <t xml:space="preserve">位于大周国中部， 大片的森林和高原之上，以高山草甸为主要景观，十分壮美
+多以正面形象在世人之中
+宗主：任青虹，类似左慈，行踪飘逸高超，主旨是求仙问道
+长老1：维护世界和平，有一定的权利欲望，多参与到世俗王权的维护当中
+长老2：喜欢文艺，琴棋书画样样精通，尤其喜欢诗词美酒，对陈浪的诗词一见倾心
+       原型雪隐，行走江湖，飘忽不定，与陈浪有一定的情缘，随缘而不执着
+</t>
+  </si>
+  <si>
+    <t>先天人类</t>
+  </si>
+  <si>
+    <t>分布与中元大陆各个地方</t>
+  </si>
+  <si>
+    <t>女娲造人，第一代人类，曾经有过辉煌历史，但在第一次上古战争中被强敌打败，人口损失惨重
+有一部分幸存了下来，分散在了这个世界的各个角落，非常低调
+但最近的一万年，先天人类逐渐强势起来，开始出来做事，影响世界
+人口稀少但非常神秘而强大，很多宗派内也有先天人类
 他们有一只几十万人的神秘国度，位于大周国东南部的高山地带
 临海，在南部是其他国度</t>
+  </si>
+  <si>
+    <t>通天寺(大反派)</t>
+  </si>
+  <si>
+    <t>宗教，总部在中南方的高山之巅，规模非常宏大，媲美皇宫</t>
+  </si>
+  <si>
+    <t>教派高层有一定的法力能够呼风唤雨，为百姓做好事，赢得了一定的群众基础
+僧徒众多，是一股极其强大的势力
+当朝皇帝信奉该教派，使得该教派迅速扩大，在20年内遍布国家
+信众达到了几百万，南朝四百八十寺，多少楼台烟雨中
+进百年，这个教派已经被邪魔入侵，逐渐演化，成为一个邪教
+教内信众不能结婚生子，但不禁男女关系
+邪魔成为当前一代的教皇，暗中带来了男女双修的功法，一时间，风气日下
+这些男女合欢，逐渐渗透到各个国家势力，成为社会的毒瘤</t>
+  </si>
+  <si>
+    <t>雷音寺</t>
+  </si>
+  <si>
+    <t>通天寺分化出来的一个教派</t>
+  </si>
+  <si>
+    <t>位于西域昆仑之巅
+该教派是比较纯粹的佛宗，追求无欲无求，求仙问道
+有几个法力极为神秘高深的高僧，势力要小的多，但小而精，非常强大
+高僧与飞星宗宗主是好友，向往天道追求</t>
   </si>
 </sst>
 </file>
@@ -231,12 +338,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,12 +355,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,6 +370,67 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -274,23 +442,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -299,9 +452,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -314,75 +475,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,8 +488,15 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -405,193 +505,199 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,6 +708,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -629,50 +750,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,6 +774,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -707,154 +813,160 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -862,13 +974,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -924,6 +1036,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00E40D08"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1235,62 +1352,62 @@
   </cols>
   <sheetData>
     <row r="1" ht="33" customHeight="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="74" customHeight="1" spans="2:2">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" ht="85" customHeight="1" spans="2:2">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" ht="72" customHeight="1" spans="2:2">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" ht="80" customHeight="1" spans="2:2">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1346,7 +1463,7 @@
       </c>
     </row>
     <row r="4" ht="92" customHeight="1" spans="2:2">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1359,7 +1476,7 @@
       </c>
     </row>
     <row r="6" ht="87" customHeight="1" spans="2:2">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1415,137 +1532,244 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26" defaultRowHeight="35" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="26" defaultRowHeight="35" customHeight="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="53.5" customWidth="1"/>
+    <col min="2" max="2" width="83.75" customWidth="1"/>
     <col min="3" max="3" width="22.75" customWidth="1"/>
     <col min="4" max="4" width="79.375" customWidth="1"/>
     <col min="5" max="16384" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:4">
+    <row r="1" customHeight="1" spans="1:2">
       <c r="A1" t="s">
         <v>34</v>
       </c>
       <c r="B1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" ht="81" customHeight="1" spans="2:2">
+      <c r="B2" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" ht="82" customHeight="1" spans="2:4">
-      <c r="B2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
       <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" ht="121" customHeight="1" spans="2:2">
+      <c r="B4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" t="s">
         <v>40</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" ht="96" customHeight="1" spans="2:2">
-      <c r="B4" s="3" t="s">
+    <row r="6" ht="82" customHeight="1" spans="2:2">
+      <c r="B6" s="1" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" ht="77" customHeight="1" spans="4:4">
-      <c r="D6" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
       <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" ht="96" customHeight="1" spans="2:2">
+      <c r="B8" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:2">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
         <v>47</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="10" ht="77" customHeight="1" spans="2:2">
+      <c r="B10" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" ht="85" customHeight="1" spans="2:2">
-      <c r="B8" t="s">
+    <row r="11" customHeight="1" spans="1:2">
+      <c r="A11" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" t="s">
+      <c r="B11" t="s">
         <v>50</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="12" ht="85" customHeight="1" spans="2:2">
+      <c r="B12" t="s">
         <v>51</v>
       </c>
-      <c r="D9" t="s">
+    </row>
+    <row r="13" customHeight="1" spans="1:1">
+      <c r="A13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" ht="88" customHeight="1"/>
-    <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" t="s">
+    <row r="14" ht="88" customHeight="1"/>
+    <row r="15" customHeight="1" spans="1:2">
+      <c r="A15" t="s">
         <v>53</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B15" t="s">
         <v>54</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="16" ht="117" customHeight="1" spans="2:2">
+      <c r="B16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="17" ht="34" customHeight="1" spans="1:2">
+      <c r="A17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="12" ht="60" customHeight="1" spans="4:4">
-      <c r="D12" t="s">
+      <c r="B17" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" t="s">
+    <row r="18" ht="90" customHeight="1" spans="2:2">
+      <c r="B18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="19" customHeight="1" spans="1:2">
+      <c r="A19" t="s">
         <v>59</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B19" t="s">
         <v>60</v>
       </c>
-      <c r="D13" t="s">
+    </row>
+    <row r="20" ht="75" customHeight="1" spans="2:2">
+      <c r="B20" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" ht="75" customHeight="1" spans="2:4">
-      <c r="B14" s="3" t="s">
+    <row r="21" customHeight="1" spans="1:2">
+      <c r="A21" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:2">
+      <c r="A25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="2:2">
+      <c r="B26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:2">
+      <c r="A29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" ht="126" customHeight="1" spans="2:2">
+      <c r="B30" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" ht="63" customHeight="1" spans="2:2">
+      <c r="B31" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" ht="66" customHeight="1" spans="2:2">
+      <c r="B32" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:2">
+      <c r="A33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" ht="135" customHeight="1" spans="2:2">
+      <c r="B34" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:2">
+      <c r="A35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" ht="109" customHeight="1" spans="2:2">
+      <c r="B36" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:2">
+      <c r="A37" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" ht="138" customHeight="1" spans="2:2">
+      <c r="B38" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:2">
+      <c r="A39" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" ht="90" customHeight="1" spans="2:2">
+      <c r="B40" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
